--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782289.6154000751</v>
+        <v>779853.9784763689</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673447</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801353</v>
       </c>
       <c r="E2" t="n">
-        <v>183.3160671983261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>90.41948680756568</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693907</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>34.74121858533854</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2708408728599</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>53.48592211952528</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>3.657500457871633</v>
+        <v>20.92365879439235</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550703</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>113.6282818814338</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>261.9395637107119</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>3.171820953549126</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.60777203238041</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>97.97552699114111</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.1004521009499</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146347</v>
       </c>
       <c r="S13" t="n">
-        <v>24.37407884776587</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754649</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001846</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="F16" t="n">
-        <v>128.7104509524663</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>52.57516893523</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833987</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>39.39795577638886</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365898</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.2919725119075</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272898</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701354</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986262</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>19.9155582618924</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>129.2171928962058</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>83.8728463917173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.14939830226086</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.026286001648</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.512007517665</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833336</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,13 +3481,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238295</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.0175085755505</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21533522728525</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552863</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>140.5758943588661</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979147</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>971.281412372397</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,25 +4340,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4431,16 +4431,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4452,7 +4452,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>452.6479724696239</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>452.6479724696239</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>452.6479724696239</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>304.7348788872308</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>157.8449313893205</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676413</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>452.6479724696239</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>452.6479724696239</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3084.535934008201</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3084.535934008201</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>332.8675597612654</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1783.437906886904</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1783.437906886904</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.335040012547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.335040012547</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1204.917869975587</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>976.9283190775692</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.9283190775692</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2421.049596543812</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2047.583838282732</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.0410834832817</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.25816976153</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>952.4821274570515</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.6895483135214</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1535.258832689349</v>
+        <v>1535.258832689347</v>
       </c>
       <c r="C11" t="n">
-        <v>1166.296315748937</v>
+        <v>1166.296315748935</v>
       </c>
       <c r="D11" t="n">
-        <v>901.7108978593296</v>
+        <v>808.0306171421848</v>
       </c>
       <c r="E11" t="n">
-        <v>515.9226452610854</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610854</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386831</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420305</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687098</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455659</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971439</v>
+        <v>3622.786021971437</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604047</v>
+        <v>3369.295305604045</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260477</v>
+        <v>3038.232418260474</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990362</v>
+        <v>2685.46376299036</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729282</v>
+        <v>2311.99800472928</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753471</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
@@ -5115,28 +5115,28 @@
         <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376502</v>
+        <v>477.1621322376497</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649599</v>
+        <v>900.4499396649588</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>977.3905023848084</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259916</v>
+        <v>1518.698809735875</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125665</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.043574125665</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.849288629729</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>667.665802212349</v>
+        <v>203.8650582458534</v>
       </c>
       <c r="C13" t="n">
-        <v>667.665802212349</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5491628000132</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="E13" t="n">
-        <v>369.6360692176202</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2131.288761886695</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.288761886695</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1842.198055326984</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.513567121097</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.096397084136</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>1070.106846186119</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>849.3142670425888</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128776</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="L15" t="n">
-        <v>756.4586328846716</v>
+        <v>525.8973588994251</v>
       </c>
       <c r="M15" t="n">
-        <v>1348.476987136799</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N15" t="n">
-        <v>1970.572950536136</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O15" t="n">
-        <v>2517.44942553633</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2517.44942553633</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
         <v>2517.44942553633</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.4761600590341</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>614.5399771311272</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>614.5399771311272</v>
+        <v>175.0061676818304</v>
       </c>
       <c r="E16" t="n">
-        <v>614.5399771311272</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156343</v>
@@ -5473,13 +5473,13 @@
         <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.906754930821</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.917204032804</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.1246248892738</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.5772922261134</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>815.6411092982065</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>665.5244698858708</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>517.6113763034775</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>370.7214288055673</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261134</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1056.376371837085</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C22" t="n">
-        <v>887.4401889091781</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D22" t="n">
-        <v>737.3235494968424</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="E22" t="n">
-        <v>589.4104559144494</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>442.5205084165391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>275.3244091314189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>133.6125779736171</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602303</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565342</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667325</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1238.024836667325</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,13 +6020,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591808</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510506</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854704</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648817</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611857</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611857</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683265</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804945</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>615.6449305525877</v>
+        <v>411.9631215597637</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402519</v>
+        <v>261.846482147428</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578587</v>
+        <v>113.9333885650349</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578587</v>
+        <v>113.9333885650349</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578587</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>2066.540128420692</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1777.46490176489</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1522.780413559003</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1233.363243522042</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1005.373692624025</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>784.5811134804945</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,13 +6549,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770317</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491248</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072714</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6780,19 +6780,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998255</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998255</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630038</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998237</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138363</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703062</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246295</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>551.2636521843868</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>403.3505586019937</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>256.4606111040835</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7333,13 +7333,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7454,7 +7454,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.5837926935528</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>261.8464821474264</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235162</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258103</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602301</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602301</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.01438756534</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667323</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.232257523793</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.934786622704</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434713</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155644</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>550.9217088032286</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E46" t="n">
-        <v>403.0086152208355</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797189</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>92.74347790997103</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>378.7585491187127</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.14636899767795</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034043</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>161.5485781599103</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729271</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537665</v>
       </c>
       <c r="F16" t="n">
-        <v>16.71059707046496</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>112.9489693570389</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.4596884482293</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>41.86788054217667</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.54000767002979</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303765</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>88.18825743108242</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>64.74262662649505</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.6825818796764</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823581</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>4.506629716718379</v>
+        <v>63.36835372228711</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>115.0314858713426</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>4.845153664065135</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915092.5679000514</v>
+        <v>915092.5679000509</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>995481.5995568347</v>
+        <v>995481.5995568342</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.437971345</v>
+        <v>386954.4379713448</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
         <v>423751.9648372532</v>
@@ -26332,7 +26332,7 @@
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372533</v>
@@ -26344,16 +26344,16 @@
         <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185157</v>
+        <v>143114.1392185147</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051383</v>
+        <v>166521.3471051386</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115324</v>
+        <v>37377.32855115298</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848931</v>
+        <v>43782.40655848928</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224528</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818179</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12897.74318952439</v>
@@ -26454,7 +26454,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1097815.656028419</v>
       </c>
       <c r="C6" t="n">
-        <v>230929.0896991739</v>
+        <v>230929.0896991736</v>
       </c>
       <c r="D6" t="n">
-        <v>230929.0896991735</v>
+        <v>230929.0896991737</v>
       </c>
       <c r="E6" t="n">
-        <v>144848.8334011579</v>
+        <v>144638.8691573139</v>
       </c>
       <c r="F6" t="n">
-        <v>141753.0729653843</v>
+        <v>141707.1679698183</v>
       </c>
       <c r="G6" t="n">
-        <v>298465.3346309369</v>
+        <v>298430.5967055005</v>
       </c>
       <c r="H6" t="n">
-        <v>309632.5708665156</v>
+        <v>309597.8329410799</v>
       </c>
       <c r="I6" t="n">
-        <v>309632.5708665157</v>
+        <v>309597.8329410799</v>
       </c>
       <c r="J6" t="n">
-        <v>92101.36846923827</v>
+        <v>92066.6305438026</v>
       </c>
       <c r="K6" t="n">
-        <v>309632.5708665157</v>
+        <v>309597.83294108</v>
       </c>
       <c r="L6" t="n">
-        <v>309632.5708665156</v>
+        <v>309597.8329410799</v>
       </c>
       <c r="M6" t="n">
-        <v>272255.2423153623</v>
+        <v>272220.504389927</v>
       </c>
       <c r="N6" t="n">
-        <v>265850.1643080263</v>
+        <v>265815.4263825907</v>
       </c>
       <c r="O6" t="n">
-        <v>306609.2728892912</v>
+        <v>306574.5349638552</v>
       </c>
       <c r="P6" t="n">
-        <v>309632.5708665156</v>
+        <v>309597.8329410797</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086474</v>
+        <v>981.3883278086469</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012576</v>
+        <v>122.3935669012567</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218304</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.986872406354</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.9868724063538</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.986872406354</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426694</v>
       </c>
       <c r="E2" t="n">
-        <v>198.6143028739357</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>75.60632145146255</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161687</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>216.2539533735634</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.16312177370926</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>136.2831032119166</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>345.5834682595414</v>
+        <v>328.3173099230207</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.4191799035212</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>112.0813735076034</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.561595462997502e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.181262495227505e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.68636854615644e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
     </row>
     <row r="33">
@@ -29955,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-3.393552105990239e-12</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-3.079648536186142e-12</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485645</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508987</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307176</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726051</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216965</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857418</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.509834189838</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.05348002944</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.750149461513</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.7692132059647</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783039</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>219.8517740430785</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147134</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431804</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205466</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.9471422719442</v>
+        <v>332.8207874071843</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533296</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697582</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619739</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263706</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973091</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570602</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>475.0576798760684</v>
+        <v>574.9651909908055</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,25 +34208,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,16 +34457,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>344.9857809048118</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276245</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584691</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077533</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062435</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156576</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>77.7177401210602</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313801</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.749043298736</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062164</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.9653681859226</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936567</v>
+        <v>16.20240458936556</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701824</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882112</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998341</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>336.5033000961942</v>
+        <v>436.4108112109313</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970742</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>55.8742344041918</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37148,22 +37148,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998953</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,16 +38105,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>205.0040068187903</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
